--- a/data/Patient_variants_SLC6A1_v6checkedForCodingNEW.xlsx
+++ b/data/Patient_variants_SLC6A1_v6checkedForCodingNEW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefana4/Dropbox/My Mac (lri-107959.local)/Desktop/projects/2021-10_Web-Portals/SLC6A1/SLC6A1_Portal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5AC85-A429-0D4D-AE25-C960BEF5EE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8505DBA-8355-EC40-B9DA-24EA864A3EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-13000" windowWidth="16080" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_variants_SLC6A1_v6" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7873" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7874" uniqueCount="394">
   <si>
     <t>Transcript</t>
   </si>
@@ -1216,6 +1216,9 @@
   </si>
   <si>
     <t>Sister with FS, mother healthy</t>
+  </si>
+  <si>
+    <t>deleted in master due to vartype and being likely not pathogenic</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1702,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1748,57 +1752,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2120,12 +2074,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BC159"/>
+  <dimension ref="A1:BD159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomLeft" activeCell="V167" sqref="V167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,7 +2427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -2640,7 +2594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>369</v>
       </c>
@@ -2807,7 +2761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -3141,7 +3095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -3308,7 +3262,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -3475,7 +3429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -3642,7 +3596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -3809,7 +3763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -3976,7 +3930,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>326</v>
       </c>
@@ -4143,7 +4097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -4310,7 +4264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4477,7 +4431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -4644,7 +4598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>223</v>
       </c>
@@ -4811,7 +4765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -4978,7 +4932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>228</v>
       </c>
@@ -5145,7 +5099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>345</v>
       </c>
@@ -5479,7 +5433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
@@ -5813,7 +5767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -5980,7 +5934,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -6314,7 +6268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -6481,7 +6435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>212</v>
       </c>
@@ -6648,7 +6602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -6815,7 +6769,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>303</v>
       </c>
@@ -6982,7 +6936,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -7149,7 +7103,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>267</v>
       </c>
@@ -7483,7 +7437,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>262</v>
       </c>
@@ -7650,7 +7604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>226</v>
       </c>
@@ -7817,174 +7771,177 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>11058903</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>1528</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="H35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N35" t="s">
-        <v>59</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q35" t="s">
-        <v>59</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="Q35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U35" t="s">
-        <v>65</v>
-      </c>
-      <c r="V35">
+      <c r="U35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V35" s="3">
         <v>12</v>
       </c>
-      <c r="W35" t="s">
-        <v>65</v>
-      </c>
-      <c r="X35" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z35">
+      <c r="W35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z35" s="3">
         <v>72</v>
       </c>
-      <c r="AA35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH35" t="s">
+      <c r="AA35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AI35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AJ35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AK35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AL35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU35" t="s">
+      <c r="AL35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AV35">
+      <c r="AV35" s="3">
         <v>78</v>
       </c>
-      <c r="AW35">
+      <c r="AW35" s="3">
         <v>2</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AX35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="AY35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="AZ35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BA35" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>59</v>
+      <c r="BA35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD35" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>295</v>
       </c>
@@ -8151,7 +8108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>383</v>
       </c>
@@ -8318,7 +8275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>310</v>
       </c>
@@ -8485,7 +8442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>234</v>
       </c>
@@ -8652,7 +8609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -8819,7 +8776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -8986,7 +8943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>306</v>
       </c>
@@ -9153,7 +9110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>267</v>
       </c>
@@ -9320,7 +9277,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>228</v>
       </c>
@@ -9487,7 +9444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -9654,7 +9611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>385</v>
       </c>
@@ -9821,7 +9778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>391</v>
       </c>
@@ -9988,7 +9945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>313</v>
       </c>
@@ -10155,7 +10112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -10322,7 +10279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -10656,7 +10613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -10823,7 +10780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>282</v>
       </c>
@@ -10990,7 +10947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -11992,7 +11949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -12159,7 +12116,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>353</v>
       </c>
@@ -12326,7 +12283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>367</v>
       </c>
@@ -12493,7 +12450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>368</v>
       </c>
@@ -12660,7 +12617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -13161,7 +13118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>228</v>
       </c>
@@ -13495,7 +13452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>228</v>
       </c>
@@ -13662,7 +13619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>275</v>
       </c>
@@ -13996,7 +13953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>275</v>
       </c>
@@ -14330,7 +14287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -14831,7 +14788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -15332,7 +15289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>293</v>
       </c>
@@ -15499,7 +15456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>181</v>
       </c>
@@ -15666,7 +15623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>291</v>
       </c>
@@ -16000,7 +15957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>316</v>
       </c>
@@ -16334,7 +16291,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>320</v>
       </c>
@@ -16501,7 +16458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -16835,7 +16792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>351</v>
       </c>
@@ -17336,7 +17293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -17837,7 +17794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -18004,7 +17961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -18171,7 +18128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -18505,7 +18462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>252</v>
       </c>
@@ -18839,7 +18796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>280</v>
       </c>
@@ -19006,7 +18963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>282</v>
       </c>
@@ -19340,7 +19297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -19507,7 +19464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>340</v>
       </c>
@@ -19674,7 +19631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -20175,7 +20132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -20342,7 +20299,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>196</v>
       </c>
@@ -20509,7 +20466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>143</v>
       </c>
@@ -20676,7 +20633,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>275</v>
       </c>
@@ -20843,7 +20800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>365</v>
       </c>
@@ -21344,7 +21301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>157</v>
       </c>
@@ -21511,7 +21468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>255</v>
       </c>
@@ -21678,7 +21635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>219</v>
       </c>
@@ -21845,7 +21802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>257</v>
       </c>
@@ -22179,7 +22136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -22346,7 +22303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>206</v>
       </c>
@@ -22513,7 +22470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -22680,7 +22637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>322</v>
       </c>
@@ -22847,7 +22804,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>301</v>
       </c>
@@ -23014,7 +22971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>318</v>
       </c>
@@ -23348,7 +23305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -23515,7 +23472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -23682,7 +23639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>217</v>
       </c>
@@ -23849,7 +23806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>221</v>
       </c>
@@ -24016,7 +23973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>331</v>
       </c>
@@ -24183,7 +24140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>186</v>
       </c>
@@ -24684,7 +24641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>313</v>
       </c>
@@ -25185,7 +25142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>349</v>
       </c>
@@ -25352,7 +25309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>202</v>
       </c>
@@ -26187,7 +26144,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>171</v>
       </c>
@@ -26521,7 +26478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>329</v>
       </c>
@@ -27189,7 +27146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>267</v>
       </c>
@@ -27356,7 +27313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>267</v>
       </c>
@@ -27523,7 +27480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>267</v>
       </c>
@@ -27690,7 +27647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>267</v>
       </c>
@@ -27857,7 +27814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>297</v>
       </c>
@@ -28024,7 +27981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>299</v>
       </c>
@@ -28358,7 +28315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>326</v>
       </c>
@@ -28525,7 +28482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>326</v>
       </c>
@@ -28694,28 +28651,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BC159" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="18">
+    <filterColumn colId="12">
       <filters>
-        <filter val="Epi25 Collaborative, 2019"/>
-        <filter val="Johanensen et al, 2018"/>
-        <filter val="Kim et al, 2019"/>
-        <filter val="Posar et al, 2019"/>
-        <filter val="Rees et al, 2020"/>
-        <filter val="Satterstorm et al, 2018"/>
-        <filter val="SLC6A1-Connect"/>
-        <filter val="Snoeijen-Schouwenaars et al, 2018"/>
-        <filter val="Truty et al, 2019"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="24">
-      <filters>
-        <filter val="No"/>
-        <filter val="Yes"/>
+        <filter val="Synonymous"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A2:A159">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
